--- a/bizchat/유지보수/TASK2080/오비즈_롤정보/OBIZ_ADMIN_RLC_v1.0.xlsx
+++ b/bizchat/유지보수/TASK2080/오비즈_롤정보/OBIZ_ADMIN_RLC_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\project\비즈쳇\diary\유지보수\TASK2080\오비즈_롤정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00.WokrSpace\git\yian\tech-note\bizchat\유지보수\TASK2080\오비즈_롤정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3590220-EC8B-4186-8AEC-5A126053525F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DAE1F1-27F3-40BB-BF4B-F8AA4093D38F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="22" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">RSRC_60_ori!$A$1:$Q$194</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">'RSRC_251'!$A$1:$Q$187</definedName>
+    <definedName name="ExternalData_2" localSheetId="1" hidden="1">'RSRC_251'!$A$1:$Q$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9259" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9271" uniqueCount="944">
   <si>
     <t>init</t>
   </si>
@@ -2937,6 +2937,22 @@
   </si>
   <si>
     <t>roleid:60번에 해당하는것을 토대로 작업하되, SuperAdmin roleid:260을 기반으로 한다.. 겹치는 번호(키)피하기 위해 2700을 더하거나, 혹은 2000번대는 3000번대로 작업한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러사별 고객사 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 관리 &amp; 통계 &gt; 통계 &gt; 알림비즈챗 &gt; 고객사 비교 통계</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stat/dlc/customlist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3665,6 +3681,32 @@
   <dxfs count="72">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3745,7 +3787,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3800,76 +3841,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4105,6 +4076,51 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4171,8 +4187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E751FEC-B8AC-4710-977D-2BD936AE4A4D}" name="RSRC_251" displayName="RSRC_251" ref="A1:Q187" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q187" xr:uid="{FBEE9611-5014-44E2-82F6-24406B18546D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E751FEC-B8AC-4710-977D-2BD936AE4A4D}" name="RSRC_251" displayName="RSRC_251" ref="A1:Q188" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:Q188" xr:uid="{FBEE9611-5014-44E2-82F6-24406B18546D}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{6253BE47-73D8-4A6B-BB17-6A938A4CB3A1}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{F44E23F3-E457-4B12-BDDB-76D2318824D6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="71"/>
@@ -4201,49 +4217,49 @@
   <autoFilter ref="A1:Q194" xr:uid="{4297BDC9-B893-4412-8321-78927B7B651D}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{0065B928-A603-474B-84E4-229B504FC183}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7913CF49-245A-4C78-9B59-1FCBD8D7B954}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{D238B1C8-291C-4062-AEB9-92842A770CCE}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{C5A4B93C-21A3-491B-B9CA-2EA417B74F41}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{40D5E95C-BD82-4349-B8DD-7FFEA769D970}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{FB9FBC2A-9C7D-49D6-AC2E-E09C71E1ECF4}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{4B1F8D2E-2EC4-459B-8DDA-B156F2B230AC}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{7913CF49-245A-4C78-9B59-1FCBD8D7B954}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{D238B1C8-291C-4062-AEB9-92842A770CCE}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{C5A4B93C-21A3-491B-B9CA-2EA417B74F41}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{40D5E95C-BD82-4349-B8DD-7FFEA769D970}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{FB9FBC2A-9C7D-49D6-AC2E-E09C71E1ECF4}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{4B1F8D2E-2EC4-459B-8DDA-B156F2B230AC}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="51"/>
     <tableColumn id="8" xr3:uid="{02D5FFED-DEF7-4D8F-A234-ED551427A06F}" uniqueName="8" name="Column8" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{A8D57482-B4F7-410A-B1E6-4478E8C37C22}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{A2D8E343-5643-4101-897F-1D4A7AA7D2CE}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{D2B80954-3C06-4DD4-8845-F8C3288EF015}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{5DC2C6FF-EE4A-4862-A911-20B116CB09CB}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{7F9FD501-3C83-47A9-B54C-9B8392F168A1}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{84A4ACBC-A4EB-428F-A919-3F5FC7E1700C}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{D7F03718-4264-4AFB-BE7F-88E7A31BCA27}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{C36D32B2-9678-4993-8DC0-9421573B04A1}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{3378A4D9-D16A-4542-BA89-A144423161BC}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{A8D57482-B4F7-410A-B1E6-4478E8C37C22}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{A2D8E343-5643-4101-897F-1D4A7AA7D2CE}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{D2B80954-3C06-4DD4-8845-F8C3288EF015}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{5DC2C6FF-EE4A-4862-A911-20B116CB09CB}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{7F9FD501-3C83-47A9-B54C-9B8392F168A1}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{84A4ACBC-A4EB-428F-A919-3F5FC7E1700C}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{D7F03718-4264-4AFB-BE7F-88E7A31BCA27}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="44"/>
+    <tableColumn id="16" xr3:uid="{C36D32B2-9678-4993-8DC0-9421573B04A1}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="43"/>
+    <tableColumn id="17" xr3:uid="{3378A4D9-D16A-4542-BA89-A144423161BC}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B17AE0C2-E1F7-44E5-9020-B02E10921D4C}" name="표3_7" displayName="표3_7" ref="A1:R187" totalsRowShown="0" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B17AE0C2-E1F7-44E5-9020-B02E10921D4C}" name="표3_7" displayName="표3_7" ref="A1:R187" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="A1:R187" xr:uid="{9C2ABDA7-97EE-4215-A7E1-64CD984E61D4}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{864C4527-5D89-4C6A-BE9D-BDC5AAA0E136}" name="RSRC_ID" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{BE10EDC4-EE84-45E9-9D0B-F783F53581FB}" name="UP_RSRC_ID" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{20098128-B1DF-428D-B26B-CF450B1CBDEC}" name="RSRC_NM" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{65CBF7AE-3821-4711-B5EC-C521570C498B}" name="RSRC_DESCR" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{19A2319D-10E4-4392-A2B5-C8871727D8F0}" name="RSRC_URL" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{E0231C80-7E35-4F9C-8A18-706842B3ED4F}" name="RSRC_TP_CD" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{96E97AFE-D304-48F7-B165-B5BA5D716A14}" name="DOMAIN_TP_CD" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{9EBE9077-89FA-428C-85F9-709F777A410B}" name="PRT_ORD" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{24995EF2-1645-4FCD-AB3F-CF4F67EC2B57}" name="PRT_LVL" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{12E57F0E-FF8A-4EDF-88FC-32F8041B6239}" name="USE_YN" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{D79B8B3B-9799-4267-A22A-7AA3FF0CF644}" name="PRGM_ID" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{7F873B67-F6D2-4C4A-9A06-A00830F8CF1E}" name="CRT_DTTM" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{2C822998-5A33-4641-A585-365D0F9E0BA1}" name="CRT_USER_ID" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{C475CE51-EB65-4DDE-ADD6-09BDB6FA45F4}" name="CRT_PRGM_ID" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{F4E51D37-7B92-4F22-A14F-A573FA7378F6}" name="UPD_DTTM" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{9DFFE3C3-9DA5-4C0A-9B69-612D608A90A3}" name="UPD_USER_ID" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{E0890215-1E00-47F4-B11D-4D76E0C2F2B5}" name="UPD_PRGM_ID" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{73B91711-C74E-4725-851C-F4B0760541FF}" name="SQL" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{864C4527-5D89-4C6A-BE9D-BDC5AAA0E136}" name="RSRC_ID" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BE10EDC4-EE84-45E9-9D0B-F783F53581FB}" name="UP_RSRC_ID" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{20098128-B1DF-428D-B26B-CF450B1CBDEC}" name="RSRC_NM" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{65CBF7AE-3821-4711-B5EC-C521570C498B}" name="RSRC_DESCR" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{19A2319D-10E4-4392-A2B5-C8871727D8F0}" name="RSRC_URL" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{E0231C80-7E35-4F9C-8A18-706842B3ED4F}" name="RSRC_TP_CD" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{96E97AFE-D304-48F7-B165-B5BA5D716A14}" name="DOMAIN_TP_CD" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{9EBE9077-89FA-428C-85F9-709F777A410B}" name="PRT_ORD" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{24995EF2-1645-4FCD-AB3F-CF4F67EC2B57}" name="PRT_LVL" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{12E57F0E-FF8A-4EDF-88FC-32F8041B6239}" name="USE_YN" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{D79B8B3B-9799-4267-A22A-7AA3FF0CF644}" name="PRGM_ID" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{7F873B67-F6D2-4C4A-9A06-A00830F8CF1E}" name="CRT_DTTM" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{2C822998-5A33-4641-A585-365D0F9E0BA1}" name="CRT_USER_ID" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{C475CE51-EB65-4DDE-ADD6-09BDB6FA45F4}" name="CRT_PRGM_ID" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{F4E51D37-7B92-4F22-A14F-A573FA7378F6}" name="UPD_DTTM" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{9DFFE3C3-9DA5-4C0A-9B69-612D608A90A3}" name="UPD_USER_ID" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{E0890215-1E00-47F4-B11D-4D76E0C2F2B5}" name="UPD_PRGM_ID" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{73B91711-C74E-4725-851C-F4B0760541FF}" name="SQL" dataDxfId="23">
       <calculatedColumnFormula>CONCATENATE("INSERT INTO RSRC (RSRC_ID, UP_RSRC_ID, RSRC_NM, RSRC_DESCR, RSRC_URL, RSRC_TP_CD, DOMAIN_TP_CD, PRT_ORD, PRT_LVL, USE_YN, PRGM_ID, CRT_DTTM, CRT_USER_ID, CRT_PRGM_ID, UPD_DTTM, UPD_USER_ID, UPD_PRGM_ID) VALUES(", 표3_7[[#This Row],[RSRC_ID]], ", ", 표3_7[[#This Row],[UP_RSRC_ID]], ", '", 표3_7[[#This Row],[RSRC_NM]], "', '", 표3_7[[#This Row],[RSRC_DESCR]], "', '", 표3_7[[#This Row],[RSRC_URL]], "', '", 표3_7[[#This Row],[RSRC_TP_CD]], "', '", 표3_7[[#This Row],[DOMAIN_TP_CD]], "',", 표3_7[[#This Row],[PRT_ORD]], ",", 표3_7[[#This Row],[PRT_LVL]],",'", 표3_7[[#This Row],[USE_YN]], "', ", 표3_7[[#This Row],[PRGM_ID]], ",SYSDATE, '", 표3_7[[#This Row],[CRT_USER_ID]], "', '", 표3_7[[#This Row],[CRT_PRGM_ID]], "', SYSDATE, '", 표3_7[[#This Row],[UPD_USER_ID]], "', '", 표3_7[[#This Row],[UPD_PRGM_ID]], "'",");")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4252,27 +4268,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{059E2816-BD03-4855-88E3-1ABA6DFA53D1}" name="표3_75" displayName="표3_75" ref="A1:R97" totalsRowShown="0" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{059E2816-BD03-4855-88E3-1ABA6DFA53D1}" name="표3_75" displayName="표3_75" ref="A1:R97" totalsRowShown="0" dataDxfId="22">
   <autoFilter ref="A1:R97" xr:uid="{9C2ABDA7-97EE-4215-A7E1-64CD984E61D4}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{8765034C-7EB7-4856-9478-58983A6D75B3}" name="RSRC_ID" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{21E7E4BE-2B73-41E3-8457-55B38EB4C31D}" name="UP_RSRC_ID" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A9F9C4A7-794E-4367-B7E8-6C972F6934B4}" name="RSRC_NM" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{DAAFB7E0-48E3-4047-9248-EECF07130ECF}" name="RSRC_DESCR" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{0727D8A8-BC9D-4E4C-A7FE-22141DE61086}" name="RSRC_URL" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{1DBE8864-63D3-4985-9D26-0223312BD64A}" name="RSRC_TP_CD" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{AB58E771-81EB-4C2E-8F59-6C24BFB4F66B}" name="DOMAIN_TP_CD" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{ADEC1E3E-1FDA-4423-8800-8432AEA0A08A}" name="PRT_ORD" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{F26EC503-CA44-457E-BACF-995526D7C0FE}" name="PRT_LVL" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{F1889558-A2D9-49AD-A530-D188B0132CD9}" name="USE_YN" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{97C84F1A-C6B8-4246-9487-BB8E3F0650CF}" name="PRGM_ID" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{227B75CC-D5C7-43A8-8F88-EBB2645851EC}" name="CRT_DTTM" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{D5DF1252-B4F9-4324-8C1A-8F88C3B91778}" name="CRT_USER_ID" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{5DE5A1A0-0A65-45C3-A3CD-0C83E9F681D7}" name="CRT_PRGM_ID" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{2BC9D6FA-8FAE-40F3-B47F-05D5D0E31D56}" name="UPD_DTTM" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{CA37084E-5A80-4776-A314-29A9D6ECD070}" name="UPD_USER_ID" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{60F2F7ED-7184-472C-AA0F-4A45D4458199}" name="UPD_PRGM_ID" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{F23BECFC-8633-4497-B22F-C15601E5B524}" name="SQL" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{8765034C-7EB7-4856-9478-58983A6D75B3}" name="RSRC_ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{21E7E4BE-2B73-41E3-8457-55B38EB4C31D}" name="UP_RSRC_ID" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A9F9C4A7-794E-4367-B7E8-6C972F6934B4}" name="RSRC_NM" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{DAAFB7E0-48E3-4047-9248-EECF07130ECF}" name="RSRC_DESCR" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{0727D8A8-BC9D-4E4C-A7FE-22141DE61086}" name="RSRC_URL" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{1DBE8864-63D3-4985-9D26-0223312BD64A}" name="RSRC_TP_CD" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{AB58E771-81EB-4C2E-8F59-6C24BFB4F66B}" name="DOMAIN_TP_CD" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{ADEC1E3E-1FDA-4423-8800-8432AEA0A08A}" name="PRT_ORD" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{F26EC503-CA44-457E-BACF-995526D7C0FE}" name="PRT_LVL" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{F1889558-A2D9-49AD-A530-D188B0132CD9}" name="USE_YN" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{97C84F1A-C6B8-4246-9487-BB8E3F0650CF}" name="PRGM_ID" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{227B75CC-D5C7-43A8-8F88-EBB2645851EC}" name="CRT_DTTM" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{D5DF1252-B4F9-4324-8C1A-8F88C3B91778}" name="CRT_USER_ID" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{5DE5A1A0-0A65-45C3-A3CD-0C83E9F681D7}" name="CRT_PRGM_ID" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{2BC9D6FA-8FAE-40F3-B47F-05D5D0E31D56}" name="UPD_DTTM" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{CA37084E-5A80-4776-A314-29A9D6ECD070}" name="UPD_USER_ID" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{60F2F7ED-7184-472C-AA0F-4A45D4458199}" name="UPD_PRGM_ID" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{F23BECFC-8633-4497-B22F-C15601E5B524}" name="SQL" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("INSERT INTO RSRC (RSRC_ID, UP_RSRC_ID, RSRC_NM, RSRC_DESCR, RSRC_URL, RSRC_TP_CD, DOMAIN_TP_CD, PRT_ORD, PRT_LVL, USE_YN, PRGM_ID, CRT_DTTM, CRT_USER_ID, CRT_PRGM_ID, UPD_DTTM, UPD_USER_ID, UPD_PRGM_ID) VALUES(", 표3_75[[#This Row],[RSRC_ID]], ", ", 표3_75[[#This Row],[UP_RSRC_ID]], ", '", 표3_75[[#This Row],[RSRC_NM]], "', '", 표3_75[[#This Row],[RSRC_DESCR]], "', '", 표3_75[[#This Row],[RSRC_URL]], "', '", 표3_75[[#This Row],[RSRC_TP_CD]], "', '", 표3_75[[#This Row],[DOMAIN_TP_CD]], "',", 표3_75[[#This Row],[PRT_ORD]], ",", 표3_75[[#This Row],[PRT_LVL]],",'", 표3_75[[#This Row],[USE_YN]], "', ", 표3_75[[#This Row],[PRGM_ID]], ",SYSDATE, '", 표3_75[[#This Row],[CRT_USER_ID]], "', '", 표3_75[[#This Row],[CRT_PRGM_ID]], "', SYSDATE, '", 표3_75[[#This Row],[UPD_USER_ID]], "', '", 표3_75[[#This Row],[UPD_PRGM_ID]], "'",");")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4288,15 +4304,15 @@
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ROLE_ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="RSRC_ID" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CRT_DTTM" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="RSRC_ID" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CRT_DTTM" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CRT_USER_ID"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CRT_PRGM_ID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="UPD_DTTM" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="UPD_DTTM" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="UPD_USER_ID"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="UPD_PRGM_ID"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BLC_ID"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="SQL" dataDxfId="30">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="SQL" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE("INSERT INTO ROLE_RSRC_MAPP (ROLE_ID, RSRC_ID, CRT_DTTM, CRT_USER_ID, CRT_PRGM_ID, UPD_DTTM, UPD_USER_ID, UPD_PRGM_ID, BLC_ID) VALUES(", 표1[[#This Row],[ROLE_ID]], ", ", 표1[[#This Row],[RSRC_ID]], ", SYSDATE, '", 표1[[#This Row],[CRT_USER_ID]], "', '", 표1[[#This Row],[CRT_PRGM_ID]], "', SYSDATE, '", 표1[[#This Row],[UPD_USER_ID]], "', '", 표1[[#This Row],[UPD_PRGM_ID]], "'", ", 10", ");")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4669,10 +4685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9BF0A2-F5B5-4D2F-886B-D8C7BD719D94}">
-  <dimension ref="A1:Q187"/>
+  <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="D62" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105:Q105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10203,31 +10219,31 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>235</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>234</v>
+      </c>
+      <c r="B105" s="2">
+        <v>117</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>652</v>
+        <v>940</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>653</v>
+        <v>941</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>654</v>
+        <v>942</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>45</v>
+        <v>943</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>42</v>
@@ -10236,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="1">
-        <v>43224</v>
+        <v>43213.823657407411</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>43</v>
@@ -10245,7 +10261,7 @@
         <v>43</v>
       </c>
       <c r="O105" s="1">
-        <v>43224</v>
+        <v>43213.823657407411</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>43</v>
@@ -10256,28 +10272,28 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>68</v>
+        <v>652</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1</v>
+        <v>654</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>62</v>
@@ -10289,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="1">
-        <v>43242</v>
+        <v>43224</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>43</v>
@@ -10298,7 +10314,7 @@
         <v>43</v>
       </c>
       <c r="O106" s="1">
-        <v>43242</v>
+        <v>43224</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>43</v>
@@ -10309,19 +10325,19 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>700</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>703</v>
+        <v>68</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>705</v>
+        <v>1</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>41</v>
@@ -10330,10 +10346,10 @@
         <v>84</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>906</v>
+        <v>62</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>42</v>
@@ -10362,19 +10378,19 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>700</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>705</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>41</v>
@@ -10383,7 +10399,7 @@
         <v>84</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>906</v>
@@ -10415,19 +10431,19 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>57</v>
+        <v>700</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>41</v>
@@ -10436,10 +10452,10 @@
         <v>84</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>62</v>
+        <v>906</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>42</v>
@@ -10448,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="1">
-        <v>43258</v>
+        <v>43242</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>43</v>
@@ -10457,7 +10473,7 @@
         <v>43</v>
       </c>
       <c r="O109" s="1">
-        <v>43258</v>
+        <v>43242</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>43</v>
@@ -10468,19 +10484,19 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>715</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>457</v>
+        <v>713</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>717</v>
+        <v>1</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>41</v>
@@ -10489,10 +10505,10 @@
         <v>84</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>906</v>
+        <v>62</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>42</v>
@@ -10521,22 +10537,22 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1</v>
+        <v>715</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>817</v>
+        <v>457</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>817</v>
+        <v>716</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>818</v>
+        <v>717</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>84</v>
@@ -10545,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>42</v>
@@ -10554,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="1">
-        <v>43370.006944444445</v>
+        <v>43258</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>43</v>
@@ -10563,7 +10579,7 @@
         <v>43</v>
       </c>
       <c r="O111" s="1">
-        <v>43370.006944444445</v>
+        <v>43258</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>43</v>
@@ -10574,22 +10590,22 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>811</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>781</v>
+        <v>817</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>84</v>
@@ -10598,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>62</v>
+        <v>905</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>42</v>
@@ -10607,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="1">
-        <v>43378</v>
+        <v>43370.006944444445</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>43</v>
@@ -10616,7 +10632,7 @@
         <v>43</v>
       </c>
       <c r="O112" s="1">
-        <v>43378</v>
+        <v>43370.006944444445</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>43</v>
@@ -10627,31 +10643,31 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2020</v>
+        <v>290</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>811</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>54</v>
+        <v>781</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>42</v>
@@ -10660,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="1">
-        <v>43703.568703703706</v>
+        <v>43378</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>43</v>
@@ -10669,7 +10685,7 @@
         <v>43</v>
       </c>
       <c r="O113" s="1">
-        <v>43703.568703703706</v>
+        <v>43378</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>43</v>
@@ -10680,7 +10696,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>53</v>
@@ -10692,19 +10708,19 @@
         <v>806</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>42</v>
@@ -10713,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="1">
-        <v>43703.568784722222</v>
+        <v>43703.568703703706</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>43</v>
@@ -10722,7 +10738,7 @@
         <v>43</v>
       </c>
       <c r="O114" s="1">
-        <v>43703.568784722222</v>
+        <v>43703.568703703706</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>43</v>
@@ -10733,31 +10749,31 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2109</v>
+        <v>2021</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>787</v>
+        <v>54</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>905</v>
+        <v>1</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>42</v>
@@ -10766,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="1">
-        <v>43496.853229166663</v>
+        <v>43703.568784722222</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>43</v>
@@ -10775,7 +10791,7 @@
         <v>43</v>
       </c>
       <c r="O115" s="1">
-        <v>43496.853229166663</v>
+        <v>43703.568784722222</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>43</v>
@@ -10786,19 +10802,19 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>790</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>44</v>
@@ -10810,7 +10826,7 @@
         <v>10</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>47</v>
+        <v>905</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>42</v>
@@ -10839,19 +10855,19 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>790</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>44</v>
@@ -10872,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="1">
-        <v>43496.857974537037</v>
+        <v>43496.853229166663</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>43</v>
@@ -10881,7 +10897,7 @@
         <v>43</v>
       </c>
       <c r="O117" s="1">
-        <v>43496.857974537037</v>
+        <v>43496.853229166663</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>43</v>
@@ -10892,28 +10908,28 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>666</v>
+        <v>790</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>47</v>
@@ -10925,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="1">
-        <v>43650.476678240739</v>
+        <v>43496.857974537037</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>43</v>
@@ -10934,7 +10950,7 @@
         <v>43</v>
       </c>
       <c r="O118" s="1">
-        <v>43650.476678240739</v>
+        <v>43496.857974537037</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>43</v>
@@ -10945,19 +10961,19 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>666</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>816</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>45</v>
@@ -10978,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="1">
-        <v>43650.497673611113</v>
+        <v>43650.476678240739</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>43</v>
@@ -10987,7 +11003,7 @@
         <v>43</v>
       </c>
       <c r="O119" s="1">
-        <v>43650.497673611113</v>
+        <v>43650.476678240739</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>43</v>
@@ -10998,19 +11014,19 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2127</v>
+        <v>2117</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>666</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>797</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>45</v>
@@ -11019,7 +11035,7 @@
         <v>84</v>
       </c>
       <c r="H120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>47</v>
@@ -11031,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="1">
-        <v>43698.782870370371</v>
+        <v>43650.497673611113</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>43</v>
@@ -11040,7 +11056,7 @@
         <v>43</v>
       </c>
       <c r="O120" s="1">
-        <v>43698.782870370371</v>
+        <v>43650.497673611113</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>43</v>
@@ -11051,31 +11067,31 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2735</v>
+        <v>2127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>666</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>907</v>
+        <v>795</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>908</v>
+        <v>796</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1</v>
+        <v>797</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>42</v>
@@ -11084,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="1">
-        <v>44231.618333333332</v>
+        <v>43698.782870370371</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>43</v>
@@ -11093,7 +11109,7 @@
         <v>43</v>
       </c>
       <c r="O121" s="1">
-        <v>44231.618333333332</v>
+        <v>43698.782870370371</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>43</v>
@@ -11104,19 +11120,19 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>909</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>626</v>
+        <v>1</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>41</v>
@@ -11128,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>906</v>
+        <v>62</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>42</v>
@@ -11157,19 +11173,19 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>909</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>41</v>
@@ -11178,7 +11194,7 @@
         <v>84</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>906</v>
@@ -11210,19 +11226,19 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2854</v>
+        <v>2739</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>909</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>462</v>
+        <v>627</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>41</v>
@@ -11234,7 +11250,7 @@
         <v>3</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>62</v>
+        <v>906</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>42</v>
@@ -11243,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="1">
-        <v>44231.618344907409</v>
+        <v>44231.618333333332</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>43</v>
@@ -11252,7 +11268,7 @@
         <v>43</v>
       </c>
       <c r="O124" s="1">
-        <v>44231.618344907409</v>
+        <v>44231.618333333332</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>43</v>
@@ -11263,16 +11279,16 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2865</v>
+        <v>2854</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>916</v>
+        <v>57</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>840</v>
+        <v>914</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>841</v>
+        <v>915</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>462</v>
@@ -11284,10 +11300,10 @@
         <v>84</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>906</v>
+        <v>62</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>42</v>
@@ -11316,28 +11332,28 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>906</v>
@@ -11369,22 +11385,22 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>84</v>
@@ -11422,22 +11438,22 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>84</v>
@@ -11475,28 +11491,28 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>906</v>
@@ -11528,22 +11544,22 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>84</v>
@@ -11552,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>47</v>
+        <v>906</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>42</v>
@@ -11581,28 +11597,28 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>47</v>
@@ -11634,19 +11650,19 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>45</v>
@@ -11655,7 +11671,7 @@
         <v>84</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>47</v>
@@ -11667,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="1">
-        <v>44231.618356481478</v>
+        <v>44231.618344907409</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>43</v>
@@ -11676,7 +11692,7 @@
         <v>43</v>
       </c>
       <c r="O132" s="1">
-        <v>44231.618356481478</v>
+        <v>44231.618344907409</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>43</v>
@@ -11687,19 +11703,19 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>45</v>
@@ -11740,31 +11756,31 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>906</v>
+        <v>47</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>42</v>
@@ -11793,31 +11809,31 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>47</v>
+        <v>906</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>42</v>
@@ -11846,19 +11862,19 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>45</v>
@@ -11867,10 +11883,10 @@
         <v>84</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>906</v>
+        <v>47</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>42</v>
@@ -11899,19 +11915,19 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>45</v>
@@ -11920,7 +11936,7 @@
         <v>84</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>906</v>
@@ -11952,19 +11968,19 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>45</v>
@@ -12005,19 +12021,19 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2885</v>
+        <v>2879</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>45</v>
@@ -12026,7 +12042,7 @@
         <v>84</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>906</v>
@@ -12038,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="L139" s="1">
-        <v>44231.618368055555</v>
+        <v>44231.618356481478</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>43</v>
@@ -12047,7 +12063,7 @@
         <v>43</v>
       </c>
       <c r="O139" s="1">
-        <v>44231.618368055555</v>
+        <v>44231.618356481478</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>43</v>
@@ -12058,19 +12074,19 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>45</v>
@@ -12079,10 +12095,10 @@
         <v>84</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>47</v>
+        <v>906</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>42</v>
@@ -12111,19 +12127,19 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>2928</v>
+        <v>2889</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>632</v>
+        <v>866</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>45</v>
@@ -12132,7 +12148,7 @@
         <v>84</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>47</v>
@@ -12164,19 +12180,19 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2936</v>
+        <v>2928</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>753</v>
+        <v>633</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>45</v>
@@ -12185,7 +12201,7 @@
         <v>84</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>47</v>
@@ -12217,22 +12233,22 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>47</v>
+        <v>917</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>46</v>
+        <v>650</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1</v>
+        <v>753</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>84</v>
@@ -12241,7 +12257,7 @@
         <v>4</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>42</v>
@@ -12270,19 +12286,19 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>921</v>
+        <v>47</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>662</v>
+        <v>1</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>41</v>
@@ -12291,10 +12307,10 @@
         <v>84</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>906</v>
+        <v>62</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>42</v>
@@ -12323,19 +12339,19 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>41</v>
@@ -12344,7 +12360,7 @@
         <v>84</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>906</v>
@@ -12376,19 +12392,19 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>41</v>
@@ -12397,7 +12413,7 @@
         <v>84</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>906</v>
@@ -12409,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="L146" s="1">
-        <v>44231.618379629632</v>
+        <v>44231.618368055555</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>43</v>
@@ -12418,7 +12434,7 @@
         <v>43</v>
       </c>
       <c r="O146" s="1">
-        <v>44231.618379629632</v>
+        <v>44231.618368055555</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>43</v>
@@ -12429,19 +12445,19 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>663</v>
+        <v>129</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>41</v>
@@ -12450,7 +12466,7 @@
         <v>84</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>906</v>
@@ -12482,31 +12498,31 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>133</v>
+        <v>663</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>777</v>
+        <v>665</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>47</v>
+        <v>906</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>42</v>
@@ -12535,22 +12551,22 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>922</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>84</v>
@@ -12559,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>42</v>
@@ -12588,22 +12604,22 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>84</v>
@@ -12612,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>42</v>
@@ -12641,19 +12657,19 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>44</v>
@@ -12694,22 +12710,22 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>84</v>
@@ -12718,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>42</v>
@@ -12747,16 +12763,16 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>760</v>
@@ -12800,22 +12816,22 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>773</v>
+        <v>152</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>84</v>
@@ -12824,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>42</v>
@@ -12853,22 +12869,22 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>925</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>84</v>
@@ -12877,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>42</v>
@@ -12886,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="1">
-        <v>44231.618391203701</v>
+        <v>44231.618379629632</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>43</v>
@@ -12895,7 +12911,7 @@
         <v>43</v>
       </c>
       <c r="O155" s="1">
-        <v>44231.618391203701</v>
+        <v>44231.618379629632</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>43</v>
@@ -12906,19 +12922,19 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>66</v>
+        <v>770</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>667</v>
+        <v>881</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>65</v>
+        <v>772</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>45</v>
@@ -12930,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>42</v>
@@ -12959,19 +12975,19 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>668</v>
+        <v>66</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>670</v>
+        <v>65</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>45</v>
@@ -12980,7 +12996,7 @@
         <v>84</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>47</v>
@@ -13012,19 +13028,19 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>45</v>
@@ -13065,19 +13081,19 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>45</v>
@@ -13086,7 +13102,7 @@
         <v>84</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>47</v>
@@ -13118,19 +13134,19 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>926</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>45</v>
@@ -13139,7 +13155,7 @@
         <v>84</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>47</v>
@@ -13171,31 +13187,31 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>467</v>
+        <v>926</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>46</v>
+        <v>707</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>882</v>
+        <v>708</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>906</v>
+        <v>47</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>42</v>
@@ -13224,31 +13240,31 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>467</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>928</v>
+        <v>46</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>47</v>
+        <v>906</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>42</v>
@@ -13277,22 +13293,22 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2971</v>
+        <v>2959</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>715</v>
+        <v>467</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>929</v>
+        <v>883</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>84</v>
@@ -13301,7 +13317,7 @@
         <v>2</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>906</v>
+        <v>47</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>42</v>
@@ -13330,19 +13346,19 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>50</v>
+        <v>715</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>46</v>
+        <v>914</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>884</v>
+        <v>929</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
@@ -13351,7 +13367,7 @@
         <v>84</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>906</v>
@@ -13363,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="1">
-        <v>44231.618402777778</v>
+        <v>44231.618391203701</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>43</v>
@@ -13372,7 +13388,7 @@
         <v>43</v>
       </c>
       <c r="O164" s="1">
-        <v>44231.618402777778</v>
+        <v>44231.618391203701</v>
       </c>
       <c r="P164" s="2" t="s">
         <v>43</v>
@@ -13383,16 +13399,16 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>930</v>
+        <v>50</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>752</v>
@@ -13404,10 +13420,10 @@
         <v>84</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>47</v>
+        <v>906</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>42</v>
@@ -13436,22 +13452,22 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>748</v>
+        <v>154</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>84</v>
@@ -13460,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>42</v>
@@ -13489,28 +13505,28 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>464</v>
+        <v>748</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>61</v>
@@ -13542,22 +13558,22 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>94</v>
+        <v>464</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>84</v>
@@ -13566,7 +13582,7 @@
         <v>2</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>42</v>
@@ -13595,22 +13611,22 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>84</v>
@@ -13619,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>42</v>
@@ -13648,28 +13664,28 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>932</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>738</v>
+        <v>464</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>61</v>
@@ -13701,28 +13717,28 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>932</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>464</v>
+        <v>738</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>61</v>
@@ -13754,31 +13770,31 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>97</v>
+        <v>464</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>42</v>
@@ -13787,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="1">
-        <v>44231.618414351855</v>
+        <v>44231.618402777778</v>
       </c>
       <c r="M172" s="2" t="s">
         <v>43</v>
@@ -13796,7 +13812,7 @@
         <v>43</v>
       </c>
       <c r="O172" s="1">
-        <v>44231.618414351855</v>
+        <v>44231.618402777778</v>
       </c>
       <c r="P172" s="2" t="s">
         <v>43</v>
@@ -13807,31 +13823,31 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>42</v>
@@ -13860,28 +13876,28 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>933</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>61</v>
@@ -13913,31 +13929,31 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>690</v>
+        <v>464</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>42</v>
@@ -13966,31 +13982,31 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>42</v>
@@ -14019,28 +14035,28 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>934</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>61</v>
@@ -14072,19 +14088,19 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>934</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>109</v>
+        <v>723</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>45</v>
@@ -14096,7 +14112,7 @@
         <v>2</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>42</v>
@@ -14105,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="L178" s="1">
-        <v>44231.618425925924</v>
+        <v>44231.618414351855</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>43</v>
@@ -14114,7 +14130,7 @@
         <v>43</v>
       </c>
       <c r="O178" s="1">
-        <v>44231.618425925924</v>
+        <v>44231.618414351855</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>43</v>
@@ -14125,19 +14141,19 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>809</v>
+        <v>892</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>810</v>
+        <v>757</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>45</v>
@@ -14146,7 +14162,7 @@
         <v>84</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>47</v>
@@ -14178,19 +14194,19 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>3010</v>
+        <v>2987</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>800</v>
+        <v>64</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>45</v>
@@ -14202,7 +14218,7 @@
         <v>3</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>42</v>
@@ -14231,19 +14247,19 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>934</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>45</v>
@@ -14252,7 +14268,7 @@
         <v>84</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>61</v>
@@ -14284,28 +14300,28 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>90</v>
+        <v>803</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>61</v>
@@ -14337,19 +14353,19 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>933</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>821</v>
+        <v>90</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>44</v>
@@ -14358,7 +14374,7 @@
         <v>84</v>
       </c>
       <c r="H183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>61</v>
@@ -14390,31 +14406,31 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>3018</v>
+        <v>3013</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>42</v>
@@ -14423,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="L184" s="1">
-        <v>44231.618437500001</v>
+        <v>44231.618425925924</v>
       </c>
       <c r="M184" s="2" t="s">
         <v>43</v>
@@ -14432,7 +14448,7 @@
         <v>43</v>
       </c>
       <c r="O184" s="1">
-        <v>44231.618437500001</v>
+        <v>44231.618425925924</v>
       </c>
       <c r="P184" s="2" t="s">
         <v>43</v>
@@ -14443,19 +14459,19 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>45</v>
@@ -14496,31 +14512,31 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>3114</v>
+        <v>3019</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H186">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>906</v>
+        <v>59</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>42</v>
@@ -14549,19 +14565,19 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>44</v>
@@ -14570,7 +14586,7 @@
         <v>84</v>
       </c>
       <c r="H187">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>906</v>
@@ -14597,6 +14613,59 @@
         <v>43</v>
       </c>
       <c r="Q187" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>3115</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H188">
+        <v>7</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L188" s="1">
+        <v>44231.618437500001</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N188" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O188" s="1">
+        <v>44231.618437500001</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q188" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14613,8 +14682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065941CB-C8A0-4B28-AE5B-48ABC39F50D4}">
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24926,7 +24995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A41E3B-5A5E-45BB-A5E1-6917C4E0E9D5}">
   <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView topLeftCell="J157" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:Q187"/>
     </sheetView>
   </sheetViews>
@@ -41164,7 +41233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
